--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="69">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Pair Coverage)</t>
   </si>
   <si>
-    <t>Size: 11 test case(s))</t>
+    <t>Size: 10 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar competencias (portfolio).</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Competencias (Portfolio).</t>
   </si>
   <si>
     <t>#</t>
@@ -92,22 +92,22 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas seleciona um competecias (portfolio) da listagem</t>
-  </si>
-  <si>
-    <t>SYSTEM destaca o competecias (portfolio) selecionado na listagem</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o competecias (portfolio) selecionado</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o formulario para cadastro e alteracao de competecias (portfolio)</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
+  </si>
+  <si>
+    <t>SYSTEM destaca o Competencias (Portfolio) selecionado na listagem</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o Competencias (Portfolio) selecionado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o formulario para cadastro e alteracao de Competencias (Portfolio)</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao tecnica</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de competencias (portfolio) e realizada com sucesso.</t>
+    <t>A gestao de Competencias (Portfolio) e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC2</t>
@@ -164,64 +164,61 @@
     <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o Competencias (Portfolio) selecionado</t>
+  </si>
+  <si>
+    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) sem o Competencias (Portfolio) excluido</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) com o Competencias (Portfolio) excluido</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o competecias (portfolio) selecionado</t>
-  </si>
-  <si>
-    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) com o competecias (portfolio) excluido</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) sem o competecias (portfolio) excluido</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de competencias (portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos competencias (portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC11</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1548,7 +1545,7 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
@@ -1608,7 +1605,7 @@
         <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
@@ -1628,38 +1625,38 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="8">
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1670,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s" s="4">
         <v>14</v>
@@ -1770,13 +1767,13 @@
         <v>2.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1790,13 +1787,13 @@
         <v>3.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1810,13 +1807,13 @@
         <v>4.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1830,13 +1827,13 @@
         <v>5.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>2</v>
@@ -1850,13 +1847,13 @@
         <v>6.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1870,13 +1867,13 @@
         <v>7.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1890,135 +1887,135 @@
         <v>8.0</v>
       </c>
       <c r="B87" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B88" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88"/>
+      <c r="C88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="89"/>
-    <row r="90">
-      <c r="A90" t="s" s="4">
+    <row r="90"/>
+    <row r="91">
+      <c r="A91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B91" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D90" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s" s="4">
+      <c r="D91" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F90" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="9">
+      <c r="F91" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s" s="9">
+      <c r="B92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F91" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="8">
+      <c r="F92" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B92" t="s" s="8">
+      <c r="B93" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="5">
+      <c r="C93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B93" t="s" s="5">
+      <c r="B94" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C93" t="s" s="5">
+      <c r="C94" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D93" t="s" s="5">
+      <c r="D94" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E93" t="s" s="5">
+      <c r="E94" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F93" t="s" s="5">
+      <c r="F94" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B94" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2029,16 +2026,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2049,16 +2046,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2069,16 +2066,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D98" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s" s="6">
         <v>2</v>
@@ -2089,16 +2086,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B99" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D99" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s" s="6">
         <v>2</v>
@@ -2109,16 +2106,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B100" t="s" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D100" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s" s="6">
         <v>2</v>
@@ -2129,138 +2126,138 @@
     </row>
     <row r="101">
       <c r="A101" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B101" t="s" s="7">
+      <c r="B102" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="7">
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="E101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104">
-      <c r="A104" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C104" t="s" s="4">
+      <c r="C105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D104" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s" s="4">
+      <c r="D105" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F104" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="9">
+      <c r="F105" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s" s="9">
+      <c r="B106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F105" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="8">
+      <c r="F106" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B106" t="s" s="8">
+      <c r="B107" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="5">
+      <c r="C107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B107" t="s" s="5">
+      <c r="B108" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C107" t="s" s="5">
+      <c r="C108" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D107" t="s" s="5">
+      <c r="D108" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E107" t="s" s="5">
+      <c r="E108" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F107" t="s" s="5">
+      <c r="F108" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B108" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F108" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2271,16 +2268,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2291,16 +2288,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2311,16 +2308,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B112" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D112" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s" s="6">
         <v>2</v>
@@ -2331,16 +2328,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E113" t="s" s="6">
         <v>2</v>
@@ -2351,16 +2348,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E114" t="s" s="6">
         <v>2</v>
@@ -2371,158 +2368,158 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B115" t="s" s="7">
+      <c r="B116" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118">
-      <c r="A118" t="s" s="4">
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B118" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C118" t="s" s="4">
+      <c r="B120" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D118" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s" s="4">
+      <c r="D120" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F118" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="9">
+      <c r="F120" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B119" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C119" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s" s="9">
+      <c r="B121" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F119" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="8">
+      <c r="F121" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B120" t="s" s="8">
+      <c r="B122" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="5">
+      <c r="C122" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B121" t="s" s="5">
+      <c r="B123" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C121" t="s" s="5">
+      <c r="C123" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D121" t="s" s="5">
+      <c r="D123" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E121" t="s" s="5">
+      <c r="E123" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F121" t="s" s="5">
+      <c r="F123" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B122" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B123" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F123" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2533,16 +2530,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
@@ -2553,16 +2550,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B126" t="s" s="7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D126" t="s" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s" s="6">
         <v>2</v>
@@ -2573,303 +2570,21 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B127" t="s" s="7">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D127" t="s" s="7">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F127" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B128" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B129" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C129" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="E129" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F129" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132">
-      <c r="A132" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B132" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="C132" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E132" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F132" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B133" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C133" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F133" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B134" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C134" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F134" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B135" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C135" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D135" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E135" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F135" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B136" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C136" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E136" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F136" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B137" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C137" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E137" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F137" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B138" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C138" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E138" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F138" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B139" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C139" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E139" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F139" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B140" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C140" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E140" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F140" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B141" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C141" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E141" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F141" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B142" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C142" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E142" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F142" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B143" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C143" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D143" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="E143" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F143" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2889,17 +2604,15 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:F122"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="69">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -95,16 +95,16 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
   </si>
   <si>
-    <t>SYSTEM destaca o Competencias (Portfolio) selecionado na listagem</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Editar' para modificar o Competencias (Portfolio) selecionado</t>
+    <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Editar' para modificar a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Competencias (Portfolio)</t>
@@ -170,7 +170,7 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir o Competencias (Portfolio) selecionado</t>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
   </si>
   <si>
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
@@ -179,7 +179,7 @@
     <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) sem o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
   </si>
   <si>
     <t>TC4</t>
@@ -188,7 +188,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) com o Competencias (Portfolio) excluido</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
   </si>
   <si>
     <t>TC5</t>
@@ -197,7 +197,7 @@
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Competencias (Portfolio) cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
@@ -209,6 +209,9 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
+  </si>
+  <si>
     <t>TC8</t>
   </si>
   <si>
@@ -216,9 +219,6 @@
   </si>
   <si>
     <t>TC10</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1525,13 +1525,13 @@
         <v>2.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1565,13 +1565,13 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1585,13 +1585,13 @@
         <v>5.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1605,13 +1605,13 @@
         <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1645,135 +1645,135 @@
         <v>8.0</v>
       </c>
       <c r="B73" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74"/>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="75"/>
-    <row r="76">
-      <c r="A76" t="s" s="4">
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B77" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D76" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F76" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F77" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C79" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D79" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1784,16 +1784,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1824,198 +1824,198 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B84" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87">
+      <c r="A87" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C87" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B94" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91">
-      <c r="A91" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="C91" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C94" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D94" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F94" t="s" s="5">
-        <v>25</v>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2066,198 +2066,198 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B98" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B99" t="s" s="7">
+      <c r="B108" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s" s="7">
+      <c r="C108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B100" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F100" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B101" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B102" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105">
-      <c r="A105" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C105" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F105" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B107" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B108" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C108" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D108" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E108" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F108" t="s" s="5">
-        <v>25</v>
+      <c r="E108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2307,111 +2307,73 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B112" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B113" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B114" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A112" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113"/>
+    <row r="114"/>
     <row r="115">
-      <c r="A115" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B115" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
+      <c r="A115" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B116" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F116" t="s" s="6">
+      <c r="A116" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s" s="8">
         <v>2</v>
@@ -2426,100 +2388,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118"/>
-    <row r="119"/>
+    <row r="118">
+      <c r="A118" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C120" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s" s="4">
+      <c r="A120" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s" s="9">
+      <c r="A121" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B122" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="8">
+      <c r="A122" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C123" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D123" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E123" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F123" t="s" s="5">
-        <v>25</v>
+      <c r="A123" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2530,61 +2530,21 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F125" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B126" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B127" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C127" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="E127" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F127" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2604,15 +2564,15 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:F122"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="69">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -164,61 +164,61 @@
     <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
+  </si>
+  <si>
+    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
-  </si>
-  <si>
-    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC10</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1525,13 +1525,13 @@
         <v>2.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1565,13 +1565,13 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1585,13 +1585,13 @@
         <v>5.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1605,13 +1605,13 @@
         <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1641,139 +1641,139 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="A73" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76">
+      <c r="A76" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76"/>
+      <c r="C76" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s" s="4">
+      <c r="A77" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s" s="9">
+      <c r="A78" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
+      <c r="A79" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>25</v>
+      <c r="A80" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1784,16 +1784,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>2</v>
@@ -1842,160 +1842,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85"/>
-    <row r="86"/>
+    <row r="85">
+      <c r="A85" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B87" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C87" t="s" s="4">
+      <c r="B90" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D87" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s" s="4">
+      <c r="D90" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F87" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="9">
+      <c r="F90" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B88" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s" s="9">
+      <c r="B91" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F88" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="8">
+      <c r="F91" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B89" t="s" s="8">
+      <c r="B92" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="5">
+      <c r="C92" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B90" t="s" s="5">
+      <c r="B93" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C90" t="s" s="5">
+      <c r="C93" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D90" t="s" s="5">
+      <c r="D93" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E90" t="s" s="5">
+      <c r="E93" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F90" t="s" s="5">
+      <c r="F93" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B91" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B92" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B93" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>2</v>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2066,198 +2066,198 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B98" t="s" s="7">
+      <c r="B101" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B102" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B101" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C101" t="s" s="4">
+      <c r="B105" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D101" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="4">
+      <c r="D105" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F101" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="9">
+      <c r="F105" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s" s="9">
+      <c r="B106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F102" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="8">
+      <c r="F106" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B103" t="s" s="8">
+      <c r="B107" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="5">
+      <c r="C107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B104" t="s" s="5">
+      <c r="B108" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C104" t="s" s="5">
+      <c r="C108" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D104" t="s" s="5">
+      <c r="D108" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E104" t="s" s="5">
+      <c r="E108" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F104" t="s" s="5">
+      <c r="F108" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B105" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B106" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B107" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B108" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F108" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2288,218 +2288,218 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C111" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="10">
         <v>7.0</v>
       </c>
-      <c r="B111" t="s" s="7">
+      <c r="B115" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B116" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C111" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E111" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F111" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B112" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119">
+      <c r="A119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B115" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C115" t="s" s="4">
+      <c r="B119" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D115" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s" s="4">
+      <c r="D119" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F115" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="9">
+      <c r="F119" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s" s="9">
+      <c r="B120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F116" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="8">
+      <c r="F120" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B117" t="s" s="8">
+      <c r="B121" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="5">
+      <c r="C121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B118" t="s" s="5">
+      <c r="B122" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C118" t="s" s="5">
+      <c r="C122" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D118" t="s" s="5">
+      <c r="D122" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E118" t="s" s="5">
+      <c r="E122" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F118" t="s" s="5">
+      <c r="F122" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B119" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F119" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B120" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B121" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B122" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B123" t="s" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D123" t="s" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s" s="6">
         <v>2</v>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2530,21 +2530,41 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F125" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="E126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2564,15 +2584,15 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:F121"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
@@ -203,22 +203,22 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
+  </si>
+  <si>
     <t>TC8</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
     <t>TC9</t>
   </si>
   <si>
     <t>TC10</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
         <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
@@ -1625,38 +1625,38 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="8">
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s" s="4">
         <v>14</v>
@@ -1767,13 +1767,13 @@
         <v>2.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1787,13 +1787,13 @@
         <v>3.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1807,13 +1807,13 @@
         <v>4.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1822,180 +1822,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B84" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="84"/>
+    <row r="85"/>
     <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
+      <c r="A86" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88"/>
-    <row r="89"/>
+      <c r="A87" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B90" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C90" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s" s="4">
+      <c r="A90" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F91" t="s" s="9">
+      <c r="A91" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B92" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="8">
+      <c r="A92" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B93" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C93" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D93" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E93" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F93" t="s" s="5">
-        <v>25</v>
+      <c r="A93" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>2</v>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2066,16 +2066,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D98" t="s" s="7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s" s="6">
         <v>2</v>
@@ -2084,180 +2084,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B99" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B100" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F100" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="99"/>
+    <row r="100"/>
     <row r="101">
-      <c r="A101" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B101" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E101" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s" s="6">
+      <c r="A101" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B102" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E102" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103"/>
-    <row r="104"/>
+      <c r="A102" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C105" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F105" t="s" s="4">
+      <c r="A105" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s" s="9">
+      <c r="A106" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B107" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="8">
+      <c r="A107" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B108" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C108" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D108" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E108" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F108" t="s" s="5">
-        <v>25</v>
+      <c r="A108" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B108" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2308,198 +2308,198 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115">
+      <c r="A115" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B112" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B113" t="s" s="7">
+      <c r="B122" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s" s="7">
+      <c r="C122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B114" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B115" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B116" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F116" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119">
-      <c r="A119" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C119" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F119" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F120" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B121" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C122" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D122" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E122" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F122" t="s" s="5">
-        <v>25</v>
+      <c r="E122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B123" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D123" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E123" t="s" s="6">
         <v>2</v>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
@@ -2549,22 +2549,22 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B126" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="E126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="6">
+      <c r="A126" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B126" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C126" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2584,15 +2584,15 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B126:F126"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
+++ b/output/xlsx/RF011 - Gerenciar Competencias (Portfolio)--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="69">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -98,7 +98,7 @@
     <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
-    <t>Lider de Pessoas seleciona um Competencias (Portfolio) da listagem</t>
+    <t>Lider de Pessoas seleciona uma Competencias (Portfolio) da listagem</t>
   </si>
   <si>
     <t>SYSTEM destaca a Competencia (Portfolio) selecionada na listagem</t>
@@ -155,7 +155,7 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um nova Competencia (portfolio)</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Competencia (portfolio)</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona no campo 'Tipo de Competencia' a opcao comportamental</t>
@@ -164,61 +164,61 @@
     <t>Lider de Pessoas indica Nao no campo 'Niveis estao modificados para esta competencia'</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
+  </si>
+  <si>
+    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) nao excluida</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Competencia (portfolio), informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Excluir' para excluir a Competencia (Portfolio) selecionada</t>
-  </si>
-  <si>
-    <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) sem a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) com a Competencia (Portfolio) excluida</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Competencias (Portfolio) a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Competencias (Portfolio) cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Competencia (portfolio), informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Competencia (portfolio)</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC10</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1525,13 +1525,13 @@
         <v>2.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1545,13 +1545,13 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1565,13 +1565,13 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1585,13 +1585,13 @@
         <v>5.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1605,13 +1605,13 @@
         <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1645,135 +1645,135 @@
         <v>8.0</v>
       </c>
       <c r="B73" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76">
-      <c r="A76" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s" s="4">
+      <c r="C77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D76" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="4">
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F76" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="9">
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="9">
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F77" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="8">
+      <c r="F78" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B79" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="5">
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B80" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C79" t="s" s="5">
+      <c r="C80" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D79" t="s" s="5">
+      <c r="D80" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E80" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F80" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1784,16 +1784,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1804,238 +1804,238 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B83" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84"/>
-    <row r="85"/>
+      <c r="B84" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="86">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92">
+      <c r="A92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B86" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C86" t="s" s="4">
+      <c r="B92" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D86" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s" s="4">
+      <c r="D92" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F86" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="9">
+      <c r="F92" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B87" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s" s="9">
+      <c r="B93" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F87" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="8">
+      <c r="F93" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B88" t="s" s="8">
+      <c r="B94" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="5">
+      <c r="C94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B89" t="s" s="5">
+      <c r="B95" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C89" t="s" s="5">
+      <c r="C95" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D89" t="s" s="5">
+      <c r="D95" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E89" t="s" s="5">
+      <c r="E95" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F89" t="s" s="5">
+      <c r="F95" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B90" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B91" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B92" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B93" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B94" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B95" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C95" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E95" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F95" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2066,238 +2066,238 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="10">
         <v>9.0</v>
       </c>
-      <c r="B98" t="s" s="7">
+      <c r="B104" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="C104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B101" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C101" t="s" s="4">
+      <c r="B107" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D101" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="4">
+      <c r="D107" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F101" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="9">
+      <c r="F107" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s" s="9">
+      <c r="B108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F102" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="8">
+      <c r="F108" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B103" t="s" s="8">
+      <c r="B109" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="5">
+      <c r="C109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B104" t="s" s="5">
+      <c r="B110" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C104" t="s" s="5">
+      <c r="C110" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D104" t="s" s="5">
+      <c r="D110" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E104" t="s" s="5">
+      <c r="E110" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F104" t="s" s="5">
+      <c r="F110" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B105" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B106" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B107" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B108" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E108" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F108" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B109" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C109" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E109" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B110" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C110" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E110" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F110" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2308,238 +2308,238 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B112" t="s" s="7">
+      <c r="B118" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="C112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="C118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121">
+      <c r="A121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B115" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C115" t="s" s="4">
+      <c r="B121" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D115" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s" s="4">
+      <c r="D121" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F115" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="9">
+      <c r="F121" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s" s="9">
+      <c r="B122" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F116" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="8">
+      <c r="F122" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B117" t="s" s="8">
+      <c r="B123" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="5">
+      <c r="C123" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B118" t="s" s="5">
+      <c r="B124" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C118" t="s" s="5">
+      <c r="C124" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D118" t="s" s="5">
+      <c r="D124" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E118" t="s" s="5">
+      <c r="E124" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F118" t="s" s="5">
+      <c r="F124" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B119" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D119" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E119" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F119" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B120" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E120" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B121" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E121" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B122" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E122" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B123" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F123" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B124" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="C124" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E124" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F124" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
@@ -2549,22 +2549,62 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B126" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="8">
+      <c r="A126" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B128" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C128" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="E128" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2584,15 +2624,15 @@
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:F123"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
